--- a/dataset/after_collation/Estimate num_passengers_v1228.xlsx
+++ b/dataset/after_collation/Estimate num_passengers_v1228.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\github\parking-lot-simulation\dataset\after_collation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Git destination\parking-lot-simulation\dataset\after_collation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB605DF6-E237-41B2-9A1E-135FD595F719}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0A592B-4C97-4B84-BC59-74F820E2589F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="178">
   <si>
     <r>
       <rPr>
@@ -2395,6 +2395,34 @@
     <t>行走預估</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>假設擴大停車場將使停車需求上升</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘客各交通工具使用比例估計值</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>機車</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽車</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>單車</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>舊停車場</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新停車場</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2779,7 +2807,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2943,6 +2971,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2980,7 +3045,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3244,10 +3309,16 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="12" fillId="7" borderId="9" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3259,18 +3330,6 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="8" borderId="9" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3278,9 +3337,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
@@ -3295,11 +3351,38 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -3754,25 +3837,38 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:AE25"/>
+  <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X8" sqref="X8"/>
+      <selection pane="topRight" activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="22" customWidth="1"/>
-    <col min="2" max="4" width="9.33203125" style="22"/>
-    <col min="5" max="5" width="9.33203125" style="21"/>
-    <col min="6" max="6" width="10.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.33203125" style="21" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="7.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.1640625" style="21" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.33203125" style="21"/>
+    <col min="12" max="12" width="10.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="14.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.33203125" style="21"/>
+    <col min="24" max="24" width="7.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9" style="21" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.33203125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="16.5">
@@ -5755,14 +5851,106 @@
         <v>10.407239819004523</v>
       </c>
     </row>
+    <row r="26" spans="1:31">
+      <c r="P26" s="108" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q26" s="109"/>
+      <c r="R26" s="109"/>
+      <c r="S26" s="110"/>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="P27" s="111"/>
+      <c r="Q27" s="112" t="s">
+        <v>172</v>
+      </c>
+      <c r="R27" s="112"/>
+      <c r="S27" s="112"/>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="P28" s="111"/>
+      <c r="Q28" s="113" t="s">
+        <v>173</v>
+      </c>
+      <c r="R28" s="113" t="s">
+        <v>174</v>
+      </c>
+      <c r="S28" s="113" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="P29" s="113" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q29" s="111">
+        <f>19/45*0.7</f>
+        <v>0.29555555555555552</v>
+      </c>
+      <c r="R29" s="111">
+        <f>10/45*0.7</f>
+        <v>0.15555555555555553</v>
+      </c>
+      <c r="S29" s="111">
+        <f>16/45*0.7</f>
+        <v>0.24888888888888888</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="P30" s="113" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q30" s="111">
+        <v>0.35</v>
+      </c>
+      <c r="R30" s="111">
+        <v>0.2</v>
+      </c>
+      <c r="S30" s="111">
+        <v>0.25</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="P1:U1"/>
     <mergeCell ref="X1:AC1"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="Q27:S27"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="P27:S30 P26">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{91C32335-2CF9-46A6-848F-7C27E13DCB46}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{91C32335-2CF9-46A6-848F-7C27E13DCB46}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P27:S30 P26</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7048,8 +7236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D11209-9A79-423A-8470-C6C1ACCDBABD}">
   <dimension ref="A1:AA14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:L14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7169,47 +7357,47 @@
       <c r="D2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="91">
+      <c r="E2" s="93">
         <v>0</v>
       </c>
-      <c r="F2" s="92">
+      <c r="F2" s="94">
         <v>23</v>
       </c>
-      <c r="G2" s="93">
+      <c r="G2" s="95">
         <v>17</v>
       </c>
-      <c r="H2" s="94">
+      <c r="H2" s="105">
         <v>6</v>
       </c>
-      <c r="I2" s="95">
+      <c r="I2" s="106">
         <v>14</v>
       </c>
-      <c r="K2" s="89">
+      <c r="K2" s="103">
         <v>2</v>
       </c>
-      <c r="M2" s="102">
+      <c r="M2" s="99">
         <v>6</v>
       </c>
-      <c r="O2" s="104">
+      <c r="O2" s="101">
         <v>2</v>
       </c>
-      <c r="W2" s="97">
+      <c r="W2" s="89">
         <f>19</f>
         <v>19</v>
       </c>
-      <c r="X2" s="97">
+      <c r="X2" s="89">
         <f>95+4+10+22+2</f>
         <v>133</v>
       </c>
-      <c r="Y2" s="97">
+      <c r="Y2" s="89">
         <f>45+24+61</f>
         <v>130</v>
       </c>
-      <c r="Z2" s="97">
+      <c r="Z2" s="89">
         <f>61*5+2+15+17</f>
         <v>339</v>
       </c>
-      <c r="AA2" s="97">
+      <c r="AA2" s="89">
         <f>22</f>
         <v>22</v>
       </c>
@@ -7222,19 +7410,19 @@
       <c r="D3" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="91"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="96"/>
-      <c r="K3" s="90"/>
-      <c r="M3" s="103"/>
-      <c r="O3" s="105"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="97"/>
-      <c r="Z3" s="97"/>
-      <c r="AA3" s="97"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="107"/>
+      <c r="K3" s="104"/>
+      <c r="M3" s="100"/>
+      <c r="O3" s="102"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
     </row>
     <row r="4" spans="1:27">
       <c r="B4" s="20">
@@ -7270,11 +7458,11 @@
       <c r="O4" s="18">
         <v>0</v>
       </c>
-      <c r="W4" s="97"/>
-      <c r="X4" s="97"/>
-      <c r="Y4" s="97"/>
-      <c r="Z4" s="97"/>
-      <c r="AA4" s="97"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
     </row>
     <row r="5" spans="1:27">
       <c r="B5" s="10">
@@ -7496,49 +7684,49 @@
       <c r="D13" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="91">
+      <c r="E13" s="93">
         <v>0</v>
       </c>
-      <c r="F13" s="92">
+      <c r="F13" s="94">
         <v>11</v>
       </c>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="98">
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="96">
         <v>4</v>
       </c>
-      <c r="J13" s="98">
+      <c r="J13" s="96">
         <v>0</v>
       </c>
-      <c r="K13" s="99">
+      <c r="K13" s="97">
         <v>2</v>
       </c>
-      <c r="L13" s="100">
+      <c r="L13" s="98">
         <v>0</v>
       </c>
-      <c r="M13" s="101">
+      <c r="M13" s="90">
         <v>2</v>
       </c>
-      <c r="N13" s="101">
+      <c r="N13" s="90">
         <v>0</v>
       </c>
-      <c r="O13" s="106">
+      <c r="O13" s="91">
         <v>2</v>
       </c>
-      <c r="P13" s="106">
+      <c r="P13" s="91">
         <v>0</v>
       </c>
-      <c r="Q13" s="107">
+      <c r="Q13" s="92">
         <v>1</v>
       </c>
-      <c r="R13" s="107">
+      <c r="R13" s="92">
         <v>0</v>
       </c>
-      <c r="W13" s="97">
+      <c r="W13" s="89">
         <v>13</v>
       </c>
-      <c r="X13" s="97"/>
-      <c r="Y13" s="97"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
     </row>
     <row r="14" spans="1:27" ht="12.75">
       <c r="C14" s="10" t="s">
@@ -7547,34 +7735,32 @@
       <c r="D14" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="91"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="107"/>
-      <c r="R14" s="107"/>
-      <c r="W14" s="97"/>
-      <c r="X14" s="97"/>
-      <c r="Y14" s="97"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="92"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="AA2:AA4"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
@@ -7591,12 +7777,14 @@
     <mergeCell ref="X2:X4"/>
     <mergeCell ref="Y2:Y4"/>
     <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="W13:W14"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
